--- a/Formato Recibo/FORMATO DE INGRESOS DIARIOS.xlsx
+++ b/Formato Recibo/FORMATO DE INGRESOS DIARIOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Dev\Sistema-Admin-2.0\Formato recibo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Dev\Sistema-Admin-2.0.2 - copia\Formato Recibo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F005709-31D0-47B0-BF4B-274A1C86E75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F83D375-BD7B-4798-9885-E054878326EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>PAGO DE SOLICITUDES DE PEDIDOS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>DÍA</t>
   </si>
@@ -45,9 +42,6 @@
     <t>AÑO</t>
   </si>
   <si>
-    <t>INGRESOS DIARIOS SEPTIEMBRE</t>
-  </si>
-  <si>
     <t>INFORMACION SOLICITUD DE PEDIDO</t>
   </si>
   <si>
@@ -133,6 +127,9 @@
   </si>
   <si>
     <t>PRESIDENTE</t>
+  </si>
+  <si>
+    <t>INGRESOS DIARIOS</t>
   </si>
 </sst>
 </file>
@@ -141,7 +138,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -637,7 +634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,6 +683,87 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,94 +794,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1391,7 +1388,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -1441,77 +1438,75 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="33" t="s">
+      <c r="P2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="Q2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="32"/>
+      <c r="R2" s="40"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="35">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="19">
         <f ca="1">DAY(TODAY())</f>
-        <v>14</v>
-      </c>
-      <c r="P4" s="37">
+        <v>17</v>
+      </c>
+      <c r="P4" s="20">
         <f ca="1">MONTH(TODAY())</f>
-        <v>11</v>
-      </c>
-      <c r="Q4" s="41">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="37">
         <f ca="1">YEAR(TODAY())</f>
         <v>2025</v>
       </c>
-      <c r="R4" s="42"/>
+      <c r="R4" s="38"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1">
       <c r="A5" s="3"/>
@@ -1533,102 +1528,102 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="34" t="s">
         <v>6</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="26" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="35.25" thickBot="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="K7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="M7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="N7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="Q7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="R7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" s="27"/>
+      <c r="S7" s="35"/>
     </row>
     <row r="8" spans="1:19" ht="24" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="7"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="45"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -1637,34 +1632,34 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
-      <c r="S8" s="46"/>
+      <c r="S8" s="24"/>
     </row>
     <row r="9" spans="1:19" ht="24" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="50"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="10">
         <f>SUM(D8:D9)</f>
@@ -1717,36 +1712,36 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="K16" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
+      <c r="C16" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="K16" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
     </row>
     <row r="17" spans="5:13">
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="5:13">
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
